--- a/testData_cucumber/Mobile/MobileAutomation/Executionsheet.xlsx
+++ b/testData_cucumber/Mobile/MobileAutomation/Executionsheet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>Execute</t>
   </si>
@@ -54,7 +54,13 @@
     <t>Android Emulator</t>
   </si>
   <si>
-    <t>TC001_</t>
+    <t>TC_001_Calculator_Automation</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>TC_002_Dial_Mobile_Number</t>
   </si>
 </sst>
 </file>
@@ -123,7 +129,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -134,6 +140,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -415,21 +422,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="77.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="31.88671875" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="6.6640625" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="16.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -448,10 +454,8 @@
       <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
@@ -459,7 +463,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>8</v>
@@ -470,8 +474,26 @@
       <c r="F2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/testData_cucumber/Mobile/MobileAutomation/Executionsheet.xlsx
+++ b/testData_cucumber/Mobile/MobileAutomation/Executionsheet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
   <si>
     <t>Execute</t>
   </si>
@@ -61,6 +61,12 @@
   </si>
   <si>
     <t>TC_002_Dial_Mobile_Number</t>
+  </si>
+  <si>
+    <t>TC_003_Send_SMS_In_Android_Mobile</t>
+  </si>
+  <si>
+    <t>TC_004_Operation_On_API_Demos_App</t>
   </si>
 </sst>
 </file>
@@ -422,10 +428,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -483,7 +489,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>8</v>
@@ -492,6 +498,46 @@
         <v>9</v>
       </c>
       <c r="F3" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>10</v>
       </c>
     </row>

--- a/testData_cucumber/Mobile/MobileAutomation/Executionsheet.xlsx
+++ b/testData_cucumber/Mobile/MobileAutomation/Executionsheet.xlsx
@@ -431,7 +431,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -509,7 +509,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>8</v>
@@ -529,7 +529,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>8</v>

--- a/testData_cucumber/Mobile/MobileAutomation/Executionsheet.xlsx
+++ b/testData_cucumber/Mobile/MobileAutomation/Executionsheet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="17">
   <si>
     <t>Execute</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>TC_004_Operation_On_API_Demos_App</t>
+  </si>
+  <si>
+    <t>TC_005_Flipkart_Operation_Using_WebApp</t>
   </si>
 </sst>
 </file>
@@ -428,10 +431,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -509,7 +512,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>8</v>
@@ -529,7 +532,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>8</v>
@@ -538,6 +541,26 @@
         <v>9</v>
       </c>
       <c r="F5" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>10</v>
       </c>
     </row>
